--- a/SourceCode/ExcisePlaning/Contents/ReportTemplates/Report007_Department_Report_Payment_Template.xlsx
+++ b/SourceCode/ExcisePlaning/Contents/ReportTemplates/Report007_Department_Report_Payment_Template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Environment_Owner\Developments\C#\ASP.NET\Planing-กรมสรรพสามิต\SourceCode\ExcisePlaning\Contents\ReportTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Environment_Owner\Developments\C#\ASP.NET\Planing-กรมสรรพสามิต\CSharpWebExcisePlaning\SourceCode\ExcisePlaning\Contents\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2832" yWindow="3540" windowWidth="21648" windowHeight="13368"/>
+    <workbookView xWindow="2832" yWindow="3996" windowWidth="21648" windowHeight="13368"/>
   </bookViews>
   <sheets>
     <sheet name="TEMPLATE" sheetId="8" r:id="rId1"/>
@@ -247,26 +247,26 @@
     <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -573,6 +573,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AM12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -619,15 +622,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="30">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
@@ -658,10 +661,10 @@
     </row>
     <row r="2" spans="1:39" ht="24.6" customHeight="1">
       <c r="A2" s="7"/>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="13"/>
+      <c r="E2" s="14"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -692,160 +695,160 @@
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14" t="s">
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14" t="s">
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14" t="s">
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
       <c r="AG3" s="4"/>
       <c r="AH3" s="4"/>
     </row>
     <row r="4" spans="1:39" ht="27" customHeight="1">
-      <c r="A4" s="11"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="16" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="9"/>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10" t="s">
+      <c r="H4" s="15"/>
+      <c r="I4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10" t="s">
+      <c r="J4" s="15"/>
+      <c r="K4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10" t="s">
+      <c r="L4" s="15"/>
+      <c r="M4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10" t="s">
+      <c r="N4" s="15"/>
+      <c r="O4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10" t="s">
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10" t="s">
+      <c r="R4" s="15"/>
+      <c r="S4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10" t="s">
+      <c r="T4" s="15"/>
+      <c r="U4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10" t="s">
+      <c r="V4" s="15"/>
+      <c r="W4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10" t="s">
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10" t="s">
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10" t="s">
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AD4" s="10"/>
+      <c r="AD4" s="15"/>
     </row>
     <row r="5" spans="1:39" ht="46.2" customHeight="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" s="16"/>
-      <c r="O5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="R5" s="16"/>
-      <c r="S5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="T5" s="16"/>
-      <c r="U5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="V5" s="16"/>
-      <c r="W5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD5" s="16"/>
+      <c r="G5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="12"/>
+      <c r="M5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="12"/>
+      <c r="O5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5" s="12"/>
+      <c r="S5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="T5" s="12"/>
+      <c r="U5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="V5" s="12"/>
+      <c r="W5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD5" s="12"/>
     </row>
     <row r="6" spans="1:39" ht="25.5" customHeight="1">
       <c r="A6" s="5"/>
@@ -870,6 +873,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="S3:X3"/>
     <mergeCell ref="Y3:AD3"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -883,29 +905,11 @@
     <mergeCell ref="Y5:Z5"/>
     <mergeCell ref="AA5:AB5"/>
     <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="S3:X3"/>
     <mergeCell ref="S4:T4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="26" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>